--- a/Abnormality of the breast_v1.0.xlsx
+++ b/Abnormality of the breast_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doieisuke/Desktop/BLAH8_HPO_まとめPhenoAb_hpo 2/Done/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56BC98E-06A5-0E41-BBE1-CABEC8D7AE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA32D72-FD38-A643-9F52-99390D4B79A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34760" yWindow="1860" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>orig_entry</t>
   </si>
@@ -98,6 +98,78 @@
   </si>
   <si>
     <t>Agalactia</t>
+  </si>
+  <si>
+    <t>乳輪の充実</t>
+  </si>
+  <si>
+    <t>低形成乳輪</t>
+  </si>
+  <si>
+    <t>乳房肥大</t>
+  </si>
+  <si>
+    <t>乳房無形成</t>
+  </si>
+  <si>
+    <t>両側乳房低形成</t>
+  </si>
+  <si>
+    <t>片側乳房低形成</t>
+  </si>
+  <si>
+    <t>反転乳頭</t>
+  </si>
+  <si>
+    <t>過剰乳頭</t>
+  </si>
+  <si>
+    <t>乾燥乳頭</t>
+  </si>
+  <si>
+    <t>広い乳頭間距離</t>
+  </si>
+  <si>
+    <t>短い乳頭間距離</t>
+  </si>
+  <si>
+    <t>低位乳頭</t>
+  </si>
+  <si>
+    <t>欠如乳頭</t>
+  </si>
+  <si>
+    <t>低形成乳頭</t>
+  </si>
+  <si>
+    <t>隆起乳頭</t>
+  </si>
+  <si>
+    <t>乳房の非対称性</t>
+  </si>
+  <si>
+    <t>多巣性乳癌</t>
+  </si>
+  <si>
+    <t>非浸潤性乳管がん</t>
+  </si>
+  <si>
+    <t>非浸潤性小葉がん</t>
+  </si>
+  <si>
+    <t>乳房線維腺腫</t>
+  </si>
+  <si>
+    <t>乳房腫瘤</t>
+  </si>
+  <si>
+    <t>女性化乳房</t>
+  </si>
+  <si>
+    <t>乳汁漏出症</t>
+  </si>
+  <si>
+    <t>無月経</t>
   </si>
   <si>
     <t>Disease name</t>
@@ -1068,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1081,7 +1153,7 @@
     <col min="7" max="7" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1089,19 +1161,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>32315</v>
       </c>
@@ -1114,8 +1186,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>100853</v>
       </c>
@@ -1128,8 +1203,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>10313</v>
       </c>
@@ -1142,8 +1220,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>100783</v>
       </c>
@@ -1156,8 +1237,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>12814</v>
       </c>
@@ -1170,8 +1254,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>12813</v>
       </c>
@@ -1184,8 +1271,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>3186</v>
       </c>
@@ -1198,8 +1288,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>2558</v>
       </c>
@@ -1212,8 +1305,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>31509</v>
       </c>
@@ -1226,8 +1322,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>6610</v>
       </c>
@@ -1240,8 +1339,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>40158</v>
       </c>
@@ -1254,8 +1356,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>2562</v>
       </c>
@@ -1268,8 +1373,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>2561</v>
       </c>
@@ -1282,8 +1390,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>2557</v>
       </c>
@@ -1296,8 +1407,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>4405</v>
       </c>
@@ -1310,8 +1424,11 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>10312</v>
       </c>
@@ -1324,8 +1441,11 @@
       <c r="F17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>6625</v>
       </c>
@@ -1335,8 +1455,11 @@
       <c r="C18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>30075</v>
       </c>
@@ -1346,8 +1469,11 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>30076</v>
       </c>
@@ -1357,8 +1483,11 @@
       <c r="C20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>10619</v>
       </c>
@@ -1368,8 +1497,11 @@
       <c r="C21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>32408</v>
       </c>
@@ -1385,8 +1517,11 @@
       <c r="F22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>771</v>
       </c>
@@ -1402,8 +1537,11 @@
       <c r="F23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>100829</v>
       </c>
@@ -1419,8 +1557,11 @@
       <c r="F24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>31109</v>
       </c>
@@ -1435,6 +1576,9 @@
       </c>
       <c r="F25" s="1">
         <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
